--- a/biology/Botanique/Square_Marie-Curie/Square_Marie-Curie.xlsx
+++ b/biology/Botanique/Square_Marie-Curie/Square_Marie-Curie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Marie-Curie est un square du 13e arrondissement de Paris.
-Le square est fermé en raison de travaux d'assainissement du 1er juillet 2020 à 2026. Il sera réaménagé et agrandi à la suite de ces travaux[1].
+Le square est fermé en raison de travaux d'assainissement du 1er juillet 2020 à 2026. Il sera réaménagé et agrandi à la suite de ces travaux.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square situé boulevard de l’Hôpital, devant la cour Saint-Louis de l’hôpital de la Salpêtrière, s’étend sur une superficie de 4 091 m2.
 Il est desservi par la ligne 5 à la station Saint-Marcel.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site rend hommage à la scientifique Marie Curie (1867-1934).
 </t>
@@ -576,10 +592,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square a été aménagé en 1931.
-Le square est fermé depuis le 1er juillet 2020 (jusqu'en 2024) pour permettre la réalisation d'un bassin de stockage des eaux de surverse du réseau d'assainissement de la ville : le bassin de stockage d'Austerlitz[1],[2], qui s'inscrit dans un plan d'amélioration de la qualité de l'eau de la Seine. À cette époque, les abords de la gare de Paris-Austerlitz, voisine du parc, sont en pleine mutation, avec notamment la réalisation d'un projet immobilier sur le terrain situé entre la gare et le square[3]. Il est prévu, à la livraison du projet en 2026, le réaménagement et l'extension du square actuel avant sa réouverture[1].
+Le square est fermé depuis le 1er juillet 2020 (jusqu'en 2024) pour permettre la réalisation d'un bassin de stockage des eaux de surverse du réseau d'assainissement de la ville : le bassin de stockage d'Austerlitz qui s'inscrit dans un plan d'amélioration de la qualité de l'eau de la Seine. À cette époque, les abords de la gare de Paris-Austerlitz, voisine du parc, sont en pleine mutation, avec notamment la réalisation d'un projet immobilier sur le terrain situé entre la gare et le square. Il est prévu, à la livraison du projet en 2026, le réaménagement et l'extension du square actuel avant sa réouverture.
 La statue du docteur Philippe Pinel placée dans le square a été transférée au centre de la place Pinel (13e arrondissement) au début du mois de mai 2023 après restauration.
 </t>
         </is>
